--- a/src/main/resources/Book3.xlsx
+++ b/src/main/resources/Book3.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minh thanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ezQuiz\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8901E59E-398B-44B2-BAD3-D67821A4FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E2C67-F087-4AAF-90B9-09B7451BC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="19748" windowHeight="11511" xr2:uid="{D136AB83-D4D2-454F-A89C-9496B4E7C4D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D136AB83-D4D2-454F-A89C-9496B4E7C4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Mathematics Quiz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>What is 2 + 2?</t>
   </si>
@@ -50,21 +47,80 @@
     <t>What is the capital of France?</t>
   </si>
   <si>
-    <t>single_choice</t>
-  </si>
-  <si>
-    <t>multiple_choice</t>
+    <t>Question Text</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Option 4</t>
+  </si>
+  <si>
+    <t>Option 5</t>
+  </si>
+  <si>
+    <t>Option 6</t>
+  </si>
+  <si>
+    <t>Single Choice</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>(required)</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>(optional)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,8 +145,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,70 +226,18 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Calibri">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -233,26 +258,44 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="メイリオ"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,92 +468,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F4AF0-5B27-4A45-9A89-D253F2A279E1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="34.15234375" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" style="5" customWidth="1"/>
+    <col min="4" max="9" width="18.6328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>